--- a/2015-2019 performers.xlsx
+++ b/2015-2019 performers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petrovi\Desktop\Podatkovno rudarjenje\proekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\proekt PR - EUROTRASH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5596E9C-AD83-48EB-8245-711E769E552B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5523FE-0C82-4931-8EE0-8494EF9EF2BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="105" windowWidth="12210" windowHeight="12750" xr2:uid="{62F06E01-EB44-4A97-A562-A180F421C107}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{62F06E01-EB44-4A97-A562-A180F421C107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="343">
   <si>
     <t>year</t>
   </si>
@@ -1413,32 +1413,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920292FA-37AF-4805-B8A3-7A50937DE8ED}">
   <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2016</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2016</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2016</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2016</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2016</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2017</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2017</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2017</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2017</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2017</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2017</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2017</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2017</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2017</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2017</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2017</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2017</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2017</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2017</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2017</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2017</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2017</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2017</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2018</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2018</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2018</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2018</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2018</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2018</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2018</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2018</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2018</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2018</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2018</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2018</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2018</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2018</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2018</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2018</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2018</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2018</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2019</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2019</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2019</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2019</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2019</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2019</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2019</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2019</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2019</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2019</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2019</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2019</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2019</v>
       </c>
@@ -8475,6 +8475,12 @@
       <c r="L126">
         <v>2</v>
       </c>
+      <c r="M126" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" t="s">
+        <v>20</v>
+      </c>
       <c r="O126">
         <v>8</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2019</v>
       </c>
@@ -8544,7 +8550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2019</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2019</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2019</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2019</v>
       </c>
